--- a/src/main/resources/系統Table架構.xlsx
+++ b/src/main/resources/系統Table架構.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cynthia.li/Documents/cynMiniHR/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cynthia.li/Documents/zuyiHR/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F0708A-E9C6-7C46-9C3C-54A4798D4B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1365C140-172D-BA48-B597-2273DE0D8ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="1" xr2:uid="{D4F3D69C-4275-2049-B2D9-D7F9B2709D49}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="40960" windowHeight="21220" xr2:uid="{D4F3D69C-4275-2049-B2D9-D7F9B2709D49}"/>
   </bookViews>
   <sheets>
     <sheet name="公司資訊" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="430">
   <si>
     <t>工號</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -652,94 +652,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公司資訊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司簡稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>公司代碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公司統編</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司郵遞區號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考勤規則</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考勤規則代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考勤規則名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加班補償方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上班類型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新進員工滿N個月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新進員工給幾天特休</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考勤區間生理假最大單位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生理假可請幾次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加班歸計</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加班遞增時數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加班補休起算日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加班補休可保留期限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特休假加班處理方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>國假加班處理方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>加班時段1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -757,18 +677,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>前推時數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>後移時數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加班倍率規則</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>休息日/例假日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1101,80 +1009,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平均日期算法(天)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均時薪算法(時)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>依到職日比例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>部門代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部門名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上層部門</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部門主管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部門層級</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可執行動作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>權限群組</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系統功能表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群組人員</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能分類</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加班類別
-(平日/休息日/例假日/國定假日)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1236,10 +1075,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>company_nation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>company_cid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1292,10 +1127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ovdftime_method_cal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>overtime_increase_hours</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1440,14 +1271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>職稱代碼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>職稱名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>title_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1670,13 +1493,941 @@
   <si>
     <t>emp_certificate_info</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公司資訊</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公司代碼</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公司名稱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公司簡稱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>國籍</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公司統編</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公司郵遞區號</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>公司地址</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>平均日期算法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>平均時薪算法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>時</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>欄位名稱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>考勤規則</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>考勤規則代碼</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>考勤規則名稱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>加班補償方式</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上班類型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新進員工滿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>個月</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新進員工給幾天特休</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>考勤區間生理假最大單位</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>生理假可請幾次</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>加班歸計</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>加班遞增時數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>加班補休起算日</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>加班補休可保留期限</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>特休假加班處理方式</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>國假加班處理方式</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>前推時數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>後移時數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>加班倍率規則</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">加班類別
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>平日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>休息日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>例假日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>國定假日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>加班時段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>加班時段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>加班時段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>加班時段</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>部門</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>部門代碼</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>部門名稱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上層部門</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>部門主管</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>部門層級</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>停用</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>職稱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>職稱代碼</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>職稱名稱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>群組</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>群組代碼</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>群組名稱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>群組人員</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工號</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>系統功能表</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>功能分類</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>功能代碼</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>功能名稱</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>可執行動作</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>權限群組</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nation_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overtime_method_cal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部門代號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dept_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disable_flag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1692,21 +2443,62 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1715,12 +2507,33 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2036,488 +2849,586 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86683DB1-A6C0-C641-9E56-A13A46984F99}">
-  <dimension ref="A2:R51"/>
+  <dimension ref="A2:R53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50:G51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="19"/>
   <cols>
-    <col min="3" max="3" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="14.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18">
-      <c r="B2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="1:18" ht="20">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" ht="20">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="20">
+      <c r="A4" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="20">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" ht="20">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="20">
+      <c r="A10" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="20">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:18" ht="63">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="20">
+      <c r="A17" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="20">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" ht="20">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="20">
+      <c r="A24" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="20">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" ht="20">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="20">
+      <c r="A32" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="20">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" ht="20">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="37" spans="1:5" ht="20">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="1:5" ht="20">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="20">
+      <c r="A39" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="B3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H3" t="s">
-        <v>164</v>
-      </c>
-      <c r="I3" t="s">
-        <v>272</v>
-      </c>
-      <c r="J3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
+      <c r="E39" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="20">
+      <c r="A44" s="3"/>
+      <c r="B44" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:5" ht="20">
+      <c r="A45" s="3"/>
+      <c r="B45" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="20">
+      <c r="A46" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="51" spans="1:7" ht="20">
+      <c r="A51" s="3"/>
+      <c r="B51" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="1:7" ht="20">
+      <c r="A52" s="3"/>
+      <c r="B52" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="20">
+      <c r="A53" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C53" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D53" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="G4" t="s">
+      <c r="E53" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="H4" t="s">
-        <v>308</v>
-      </c>
-      <c r="I4" t="s">
-        <v>309</v>
-      </c>
-      <c r="J4" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="B8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="B9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" t="s">
-        <v>169</v>
-      </c>
-      <c r="F9" t="s">
-        <v>170</v>
-      </c>
-      <c r="G9" t="s">
-        <v>171</v>
-      </c>
-      <c r="H9" t="s">
-        <v>172</v>
-      </c>
-      <c r="I9" t="s">
-        <v>173</v>
-      </c>
-      <c r="J9" t="s">
-        <v>174</v>
-      </c>
-      <c r="K9" t="s">
-        <v>175</v>
-      </c>
-      <c r="L9" t="s">
-        <v>176</v>
-      </c>
-      <c r="M9" t="s">
-        <v>177</v>
-      </c>
-      <c r="N9" t="s">
-        <v>178</v>
-      </c>
-      <c r="O9" t="s">
-        <v>179</v>
-      </c>
-      <c r="P9" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>186</v>
-      </c>
-      <c r="R9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" t="s">
-        <v>301</v>
-      </c>
-      <c r="B10" t="s">
-        <v>302</v>
-      </c>
-      <c r="C10" t="s">
-        <v>311</v>
-      </c>
-      <c r="D10" t="s">
-        <v>312</v>
-      </c>
-      <c r="E10" t="s">
-        <v>313</v>
-      </c>
-      <c r="F10" t="s">
-        <v>314</v>
-      </c>
-      <c r="G10" t="s">
-        <v>316</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="F53" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="G53" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="I10" t="s">
-        <v>318</v>
-      </c>
-      <c r="J10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K10" t="s">
-        <v>319</v>
-      </c>
-      <c r="L10" t="s">
-        <v>320</v>
-      </c>
-      <c r="M10" t="s">
-        <v>321</v>
-      </c>
-      <c r="N10" t="s">
-        <v>322</v>
-      </c>
-      <c r="O10" t="s">
-        <v>323</v>
-      </c>
-      <c r="P10" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>325</v>
-      </c>
-      <c r="R10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="B15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C15" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="32">
-      <c r="B16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="D16" t="s">
-        <v>181</v>
-      </c>
-      <c r="E16" t="s">
-        <v>182</v>
-      </c>
-      <c r="F16" t="s">
-        <v>183</v>
-      </c>
-      <c r="G16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>301</v>
-      </c>
-      <c r="B17" t="s">
-        <v>302</v>
-      </c>
-      <c r="C17" t="s">
-        <v>327</v>
-      </c>
-      <c r="D17" t="s">
-        <v>328</v>
-      </c>
-      <c r="E17" t="s">
-        <v>329</v>
-      </c>
-      <c r="F17" t="s">
-        <v>330</v>
-      </c>
-      <c r="G17" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="B23" t="s">
-        <v>162</v>
-      </c>
-      <c r="C23" t="s">
-        <v>275</v>
-      </c>
-      <c r="D23" t="s">
-        <v>276</v>
-      </c>
-      <c r="E23" t="s">
-        <v>277</v>
-      </c>
-      <c r="F23" t="s">
-        <v>278</v>
-      </c>
-      <c r="G23" t="s">
-        <v>279</v>
-      </c>
-      <c r="H23" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" t="s">
-        <v>301</v>
-      </c>
-      <c r="B24" t="s">
-        <v>302</v>
-      </c>
-      <c r="C24" t="s">
-        <v>335</v>
-      </c>
-      <c r="D24" t="s">
-        <v>336</v>
-      </c>
-      <c r="E24" t="s">
-        <v>337</v>
-      </c>
-      <c r="F24" t="s">
-        <v>338</v>
-      </c>
-      <c r="G24" t="s">
-        <v>339</v>
-      </c>
-      <c r="H24" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="B31" t="s">
-        <v>162</v>
-      </c>
-      <c r="C31" t="s">
-        <v>356</v>
-      </c>
-      <c r="D31" t="s">
-        <v>357</v>
-      </c>
-      <c r="E31" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" t="s">
-        <v>301</v>
-      </c>
-      <c r="B32" t="s">
-        <v>302</v>
-      </c>
-      <c r="C32" t="s">
-        <v>354</v>
-      </c>
-      <c r="D32" t="s">
-        <v>358</v>
-      </c>
-      <c r="E32" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="B35" t="s">
-        <v>284</v>
-      </c>
-      <c r="C35" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="B36" t="s">
-        <v>162</v>
-      </c>
-      <c r="C36" t="s">
-        <v>285</v>
-      </c>
-      <c r="D36" t="s">
-        <v>286</v>
-      </c>
-      <c r="E36" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>301</v>
-      </c>
-      <c r="B37" t="s">
-        <v>302</v>
-      </c>
-      <c r="C37" t="s">
-        <v>341</v>
-      </c>
-      <c r="D37" t="s">
-        <v>342</v>
-      </c>
-      <c r="E37" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="B42" t="s">
-        <v>288</v>
-      </c>
-      <c r="C42" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="B43" t="s">
-        <v>162</v>
-      </c>
-      <c r="C43" t="s">
-        <v>285</v>
-      </c>
-      <c r="D43" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>301</v>
-      </c>
-      <c r="B44" t="s">
-        <v>302</v>
-      </c>
-      <c r="C44" t="s">
-        <v>341</v>
-      </c>
-      <c r="D44" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="B49" t="s">
-        <v>287</v>
-      </c>
-      <c r="C49" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="B50" t="s">
-        <v>289</v>
-      </c>
-      <c r="C50" t="s">
-        <v>280</v>
-      </c>
-      <c r="D50" t="s">
-        <v>281</v>
-      </c>
-      <c r="E50" t="s">
-        <v>282</v>
-      </c>
-      <c r="F50" t="s">
-        <v>283</v>
-      </c>
-      <c r="G50" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
-        <v>301</v>
-      </c>
-      <c r="B51" t="s">
-        <v>346</v>
-      </c>
-      <c r="C51" t="s">
-        <v>347</v>
-      </c>
-      <c r="D51" t="s">
-        <v>348</v>
-      </c>
-      <c r="E51" t="s">
-        <v>349</v>
-      </c>
-      <c r="F51" t="s">
-        <v>341</v>
-      </c>
-      <c r="G51" t="s">
-        <v>359</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:R8"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="C30:E30"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2539,7 +3450,7 @@
   <sheetData>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32">
@@ -2547,69 +3458,69 @@
         <v>115</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="E4" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="32">
       <c r="A10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="E10" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="32">
       <c r="A16" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="E16" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2622,7 +3533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1AC5EE-E8B1-2C4A-A396-E435960A4BF1}">
   <dimension ref="A1:X39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -2658,7 +3569,7 @@
         <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>350</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -2678,7 +3589,7 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -2734,76 +3645,76 @@
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="B3" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="C3" t="s">
-        <v>351</v>
+        <v>309</v>
       </c>
       <c r="D3" t="s">
-        <v>352</v>
+        <v>310</v>
       </c>
       <c r="E3" t="s">
-        <v>353</v>
+        <v>311</v>
       </c>
       <c r="F3" t="s">
-        <v>302</v>
+        <v>262</v>
       </c>
       <c r="G3" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
       <c r="H3" t="s">
-        <v>354</v>
+        <v>312</v>
       </c>
       <c r="I3" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="J3" t="s">
-        <v>361</v>
+        <v>317</v>
       </c>
       <c r="K3" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="L3" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="M3" t="s">
-        <v>364</v>
+        <v>320</v>
       </c>
       <c r="N3" t="s">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="O3" t="s">
-        <v>366</v>
+        <v>322</v>
       </c>
       <c r="P3" t="s">
-        <v>367</v>
+        <v>323</v>
       </c>
       <c r="Q3" t="s">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="R3" t="s">
-        <v>368</v>
+        <v>324</v>
       </c>
       <c r="S3" t="s">
-        <v>369</v>
+        <v>325</v>
       </c>
       <c r="T3" t="s">
-        <v>370</v>
+        <v>326</v>
       </c>
       <c r="U3" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
       <c r="V3" t="s">
-        <v>372</v>
+        <v>328</v>
       </c>
       <c r="W3" t="s">
-        <v>373</v>
+        <v>329</v>
       </c>
       <c r="X3" t="s">
-        <v>374</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -2811,7 +3722,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>409</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -2833,22 +3744,22 @@
     </row>
     <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="B11" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="C11" t="s">
-        <v>375</v>
+        <v>331</v>
       </c>
       <c r="D11" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="E11" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
       <c r="F11" t="s">
-        <v>373</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="16" customHeight="1"/>
@@ -2859,7 +3770,7 @@
         <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>410</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2890,31 +3801,31 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="B18" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="C18" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
       <c r="D18" t="s">
-        <v>379</v>
+        <v>335</v>
       </c>
       <c r="E18" t="s">
-        <v>380</v>
+        <v>336</v>
       </c>
       <c r="F18" t="s">
-        <v>381</v>
+        <v>337</v>
       </c>
       <c r="G18" t="s">
-        <v>382</v>
+        <v>338</v>
       </c>
       <c r="H18" t="s">
-        <v>383</v>
+        <v>339</v>
       </c>
       <c r="I18" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2922,7 +3833,7 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>411</v>
+        <v>367</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2953,31 +3864,31 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="B25" t="s">
+        <v>302</v>
+      </c>
+      <c r="C25" t="s">
+        <v>341</v>
+      </c>
+      <c r="D25" t="s">
+        <v>342</v>
+      </c>
+      <c r="E25" t="s">
+        <v>343</v>
+      </c>
+      <c r="F25" t="s">
         <v>344</v>
       </c>
-      <c r="C25" t="s">
-        <v>385</v>
-      </c>
-      <c r="D25" t="s">
-        <v>386</v>
-      </c>
-      <c r="E25" t="s">
-        <v>387</v>
-      </c>
-      <c r="F25" t="s">
-        <v>388</v>
-      </c>
       <c r="G25" t="s">
-        <v>389</v>
+        <v>345</v>
       </c>
       <c r="H25" t="s">
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="I25" t="s">
-        <v>391</v>
+        <v>347</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2985,7 +3896,7 @@
         <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>412</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -3028,43 +3939,43 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="B32" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="C32" t="s">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="D32" t="s">
-        <v>393</v>
+        <v>349</v>
       </c>
       <c r="E32" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="F32" t="s">
-        <v>395</v>
+        <v>351</v>
       </c>
       <c r="G32" t="s">
-        <v>396</v>
+        <v>352</v>
       </c>
       <c r="H32" t="s">
-        <v>397</v>
+        <v>353</v>
       </c>
       <c r="I32" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="J32" t="s">
-        <v>399</v>
+        <v>355</v>
       </c>
       <c r="K32" t="s">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="L32" t="s">
-        <v>401</v>
+        <v>357</v>
       </c>
       <c r="M32" t="s">
-        <v>402</v>
+        <v>358</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3072,7 +3983,7 @@
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>413</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3100,28 +4011,28 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="B39" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="C39" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
       <c r="D39" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="E39" t="s">
-        <v>408</v>
+        <v>364</v>
       </c>
       <c r="F39" t="s">
-        <v>405</v>
+        <v>361</v>
       </c>
       <c r="G39" t="s">
-        <v>406</v>
+        <v>362</v>
       </c>
       <c r="H39" t="s">
-        <v>407</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -3197,7 +4108,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -3685,7 +4596,7 @@
   <sheetData>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3717,10 +4628,10 @@
         <v>150</v>
       </c>
       <c r="J3" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="K3" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -3760,25 +4671,25 @@
         <v>150</v>
       </c>
       <c r="K8" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="L8" t="s">
         <v>156</v>
       </c>
       <c r="M8" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="N8" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="O8" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="P8" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="Q8" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="R8" t="s">
         <v>157</v>
@@ -3833,21 +4744,21 @@
   <sheetData>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="D4" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="E4" t="s">
         <v>0</v>
@@ -3855,7 +4766,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -3866,28 +4777,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="D10" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="E10" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="F10" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="G10" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="H10" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="I10" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="J10" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="K10" t="s">
         <v>152</v>
@@ -3895,7 +4806,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -3909,16 +4820,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="E16" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="F16" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="G16" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3939,136 +4850,136 @@
   <sheetData>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="C10" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="D10" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C16" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="D16" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="E16" t="s">
         <v>134</v>
       </c>
       <c r="F16" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="G16" t="s">
         <v>136</v>
       </c>
       <c r="H16" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="I16" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="J16" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="K16" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="L16" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="M16" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="N16" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s">
         <v>110</v>
       </c>
       <c r="C22" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="D22" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="E22" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="F22" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="G22" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="B28" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="C28" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="D28" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -4089,62 +5000,62 @@
   <sheetData>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="C4" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="D4" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="E4" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s">
         <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="D11" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="E11" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="F11" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
@@ -4159,30 +5070,30 @@
         <v>46</v>
       </c>
       <c r="G17" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="H17" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="I17" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="J17" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="K17" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="L17" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="M17" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -4190,22 +5101,22 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="C24" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="D24" t="s">
         <v>46</v>
       </c>
       <c r="E24" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="F24" t="s">
         <v>117</v>
       </c>
       <c r="G24" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -4226,105 +5137,105 @@
   <sheetData>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="C3" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="D3" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="D9" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="E9" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="F9" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="D15" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="E15" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="F15" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="G15" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="H15" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="D21" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="E21" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="F21" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="G21" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
